--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.763748481333391</v>
+        <v>10.35490933333333</v>
       </c>
       <c r="H2">
-        <v>8.763748481333391</v>
+        <v>31.064728</v>
       </c>
       <c r="I2">
-        <v>0.239205943433651</v>
+        <v>0.2600176147259196</v>
       </c>
       <c r="J2">
-        <v>0.239205943433651</v>
+        <v>0.2600176147259196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.299279943609565</v>
+        <v>0.4363026666666667</v>
       </c>
       <c r="N2">
-        <v>0.299279943609565</v>
+        <v>1.308908</v>
       </c>
       <c r="O2">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="P2">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="Q2">
-        <v>2.622814151301868</v>
+        <v>4.517874555224889</v>
       </c>
       <c r="R2">
-        <v>2.622814151301868</v>
+        <v>40.660870997024</v>
       </c>
       <c r="S2">
-        <v>0.03694657617175288</v>
+        <v>0.05355360158179337</v>
       </c>
       <c r="T2">
-        <v>0.03694657617175288</v>
+        <v>0.05355360158179337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.763748481333391</v>
+        <v>10.35490933333333</v>
       </c>
       <c r="H3">
-        <v>8.763748481333391</v>
+        <v>31.064728</v>
       </c>
       <c r="I3">
-        <v>0.239205943433651</v>
+        <v>0.2600176147259196</v>
       </c>
       <c r="J3">
-        <v>0.239205943433651</v>
+        <v>0.2600176147259196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.31485895987444</v>
+        <v>1.357753333333333</v>
       </c>
       <c r="N3">
-        <v>1.31485895987444</v>
+        <v>4.073259999999999</v>
       </c>
       <c r="O3">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="P3">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="Q3">
-        <v>11.52309321276723</v>
+        <v>14.05941266369778</v>
       </c>
       <c r="R3">
-        <v>11.52309321276723</v>
+        <v>126.53471397328</v>
       </c>
       <c r="S3">
-        <v>0.1623213909031228</v>
+        <v>0.1666562838481052</v>
       </c>
       <c r="T3">
-        <v>0.1623213909031228</v>
+        <v>0.1666562838481052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.763748481333391</v>
+        <v>10.35490933333333</v>
       </c>
       <c r="H4">
-        <v>8.763748481333391</v>
+        <v>31.064728</v>
       </c>
       <c r="I4">
-        <v>0.239205943433651</v>
+        <v>0.2600176147259196</v>
       </c>
       <c r="J4">
-        <v>0.239205943433651</v>
+        <v>0.2600176147259196</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.323511311493937</v>
+        <v>0.3243146666666667</v>
       </c>
       <c r="N4">
-        <v>0.323511311493937</v>
+        <v>0.972944</v>
       </c>
       <c r="O4">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="P4">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="Q4">
-        <v>2.835171764799164</v>
+        <v>3.358248968803556</v>
       </c>
       <c r="R4">
-        <v>2.835171764799164</v>
+        <v>30.224240719232</v>
       </c>
       <c r="S4">
-        <v>0.03993797635877532</v>
+        <v>0.03980772929602109</v>
       </c>
       <c r="T4">
-        <v>0.03993797635877532</v>
+        <v>0.03980772929602109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.0130171793999</v>
+        <v>13.040437</v>
       </c>
       <c r="H5">
-        <v>13.0130171793999</v>
+        <v>39.121311</v>
       </c>
       <c r="I5">
-        <v>0.3551894555106008</v>
+        <v>0.3274527293839778</v>
       </c>
       <c r="J5">
-        <v>0.3551894555106008</v>
+        <v>0.3274527293839778</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.299279943609565</v>
+        <v>0.4363026666666667</v>
       </c>
       <c r="N5">
-        <v>0.299279943609565</v>
+        <v>1.308908</v>
       </c>
       <c r="O5">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="P5">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="Q5">
-        <v>3.894535047641103</v>
+        <v>5.689577437598667</v>
       </c>
       <c r="R5">
-        <v>3.894535047641103</v>
+        <v>51.206196938388</v>
       </c>
       <c r="S5">
-        <v>0.05486082028336307</v>
+        <v>0.06744263470297986</v>
       </c>
       <c r="T5">
-        <v>0.05486082028336307</v>
+        <v>0.06744263470297986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.0130171793999</v>
+        <v>13.040437</v>
       </c>
       <c r="H6">
-        <v>13.0130171793999</v>
+        <v>39.121311</v>
       </c>
       <c r="I6">
-        <v>0.3551894555106008</v>
+        <v>0.3274527293839778</v>
       </c>
       <c r="J6">
-        <v>0.3551894555106008</v>
+        <v>0.3274527293839778</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.31485895987444</v>
+        <v>1.357753333333333</v>
       </c>
       <c r="N6">
-        <v>1.31485895987444</v>
+        <v>4.073259999999999</v>
       </c>
       <c r="O6">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="P6">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="Q6">
-        <v>17.11028223333397</v>
+        <v>17.70569680487333</v>
       </c>
       <c r="R6">
-        <v>17.11028223333397</v>
+        <v>159.35127124386</v>
       </c>
       <c r="S6">
-        <v>0.2410259779711344</v>
+        <v>0.2098783002550673</v>
       </c>
       <c r="T6">
-        <v>0.2410259779711344</v>
+        <v>0.2098783002550673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.0130171793999</v>
+        <v>13.040437</v>
       </c>
       <c r="H7">
-        <v>13.0130171793999</v>
+        <v>39.121311</v>
       </c>
       <c r="I7">
-        <v>0.3551894555106008</v>
+        <v>0.3274527293839778</v>
       </c>
       <c r="J7">
-        <v>0.3551894555106008</v>
+        <v>0.3274527293839778</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.323511311493937</v>
+        <v>0.3243146666666667</v>
       </c>
       <c r="N7">
-        <v>0.323511311493937</v>
+        <v>0.972944</v>
       </c>
       <c r="O7">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="P7">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="Q7">
-        <v>4.209858254200795</v>
+        <v>4.229204978842667</v>
       </c>
       <c r="R7">
-        <v>4.209858254200795</v>
+        <v>38.062844809584</v>
       </c>
       <c r="S7">
-        <v>0.05930265725610334</v>
+        <v>0.05013179442593065</v>
       </c>
       <c r="T7">
-        <v>0.05930265725610334</v>
+        <v>0.05013179442593065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.65967778780804</v>
+        <v>10.797721</v>
       </c>
       <c r="H8">
-        <v>9.65967778780804</v>
+        <v>32.393163</v>
       </c>
       <c r="I8">
-        <v>0.263660275442563</v>
+        <v>0.2711368654728898</v>
       </c>
       <c r="J8">
-        <v>0.263660275442563</v>
+        <v>0.2711368654728898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.299279943609565</v>
+        <v>0.4363026666666667</v>
       </c>
       <c r="N8">
-        <v>0.299279943609565</v>
+        <v>1.308908</v>
       </c>
       <c r="O8">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="P8">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="Q8">
-        <v>2.890947823621758</v>
+        <v>4.711074466222668</v>
       </c>
       <c r="R8">
-        <v>2.890947823621758</v>
+        <v>42.399670196004</v>
       </c>
       <c r="S8">
-        <v>0.04072367228954733</v>
+        <v>0.05584373844432472</v>
       </c>
       <c r="T8">
-        <v>0.04072367228954733</v>
+        <v>0.05584373844432472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.65967778780804</v>
+        <v>10.797721</v>
       </c>
       <c r="H9">
-        <v>9.65967778780804</v>
+        <v>32.393163</v>
       </c>
       <c r="I9">
-        <v>0.263660275442563</v>
+        <v>0.2711368654728898</v>
       </c>
       <c r="J9">
-        <v>0.263660275442563</v>
+        <v>0.2711368654728898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.31485895987444</v>
+        <v>1.357753333333333</v>
       </c>
       <c r="N9">
-        <v>1.31485895987444</v>
+        <v>4.073259999999999</v>
       </c>
       <c r="O9">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="P9">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="Q9">
-        <v>12.70111388879951</v>
+        <v>14.66064168015333</v>
       </c>
       <c r="R9">
-        <v>12.70111388879951</v>
+        <v>131.94577512138</v>
       </c>
       <c r="S9">
-        <v>0.178915715978471</v>
+        <v>0.1737830818176144</v>
       </c>
       <c r="T9">
-        <v>0.178915715978471</v>
+        <v>0.1737830818176144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.65967778780804</v>
+        <v>10.797721</v>
       </c>
       <c r="H10">
-        <v>9.65967778780804</v>
+        <v>32.393163</v>
       </c>
       <c r="I10">
-        <v>0.263660275442563</v>
+        <v>0.2711368654728898</v>
       </c>
       <c r="J10">
-        <v>0.263660275442563</v>
+        <v>0.2711368654728898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.323511311493937</v>
+        <v>0.3243146666666667</v>
       </c>
       <c r="N10">
-        <v>0.323511311493937</v>
+        <v>0.972944</v>
       </c>
       <c r="O10">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="P10">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="Q10">
-        <v>3.125015029742631</v>
+        <v>3.501859286874667</v>
       </c>
       <c r="R10">
-        <v>3.125015029742631</v>
+        <v>31.516733581872</v>
       </c>
       <c r="S10">
-        <v>0.04402088717454468</v>
+        <v>0.04151004521095071</v>
       </c>
       <c r="T10">
-        <v>0.04402088717454468</v>
+        <v>0.04151004521095071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.20039071843332</v>
+        <v>5.630808999999999</v>
       </c>
       <c r="H11">
-        <v>5.20039071843332</v>
+        <v>16.892427</v>
       </c>
       <c r="I11">
-        <v>0.1419443256131852</v>
+        <v>0.1413927904172128</v>
       </c>
       <c r="J11">
-        <v>0.1419443256131852</v>
+        <v>0.1413927904172128</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.299279943609565</v>
+        <v>0.4363026666666667</v>
       </c>
       <c r="N11">
-        <v>0.299279943609565</v>
+        <v>1.308908</v>
       </c>
       <c r="O11">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="P11">
-        <v>0.1544550927180487</v>
+        <v>0.2059614370289619</v>
       </c>
       <c r="Q11">
-        <v>1.556372640960429</v>
+        <v>2.456736982190666</v>
       </c>
       <c r="R11">
-        <v>1.556372640960429</v>
+        <v>22.110632839716</v>
       </c>
       <c r="S11">
-        <v>0.02192402397338542</v>
+        <v>0.02912146229986397</v>
       </c>
       <c r="T11">
-        <v>0.02192402397338542</v>
+        <v>0.02912146229986397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.20039071843332</v>
+        <v>5.630808999999999</v>
       </c>
       <c r="H12">
-        <v>5.20039071843332</v>
+        <v>16.892427</v>
       </c>
       <c r="I12">
-        <v>0.1419443256131852</v>
+        <v>0.1413927904172128</v>
       </c>
       <c r="J12">
-        <v>0.1419443256131852</v>
+        <v>0.1413927904172128</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.31485895987444</v>
+        <v>1.357753333333333</v>
       </c>
       <c r="N12">
-        <v>1.31485895987444</v>
+        <v>4.073259999999999</v>
       </c>
       <c r="O12">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="P12">
-        <v>0.6785842716660851</v>
+        <v>0.6409422839440123</v>
       </c>
       <c r="Q12">
-        <v>6.837780330979927</v>
+        <v>7.645249689113331</v>
       </c>
       <c r="R12">
-        <v>6.837780330979927</v>
+        <v>68.80724720201998</v>
       </c>
       <c r="S12">
-        <v>0.09632118681335694</v>
+        <v>0.0906246180232254</v>
       </c>
       <c r="T12">
-        <v>0.09632118681335694</v>
+        <v>0.0906246180232254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.20039071843332</v>
+        <v>5.630808999999999</v>
       </c>
       <c r="H13">
-        <v>5.20039071843332</v>
+        <v>16.892427</v>
       </c>
       <c r="I13">
-        <v>0.1419443256131852</v>
+        <v>0.1413927904172128</v>
       </c>
       <c r="J13">
-        <v>0.1419443256131852</v>
+        <v>0.1413927904172128</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.323511311493937</v>
+        <v>0.3243146666666667</v>
       </c>
       <c r="N13">
-        <v>0.323511311493937</v>
+        <v>0.972944</v>
       </c>
       <c r="O13">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="P13">
-        <v>0.1669606356158662</v>
+        <v>0.1530962790270258</v>
       </c>
       <c r="Q13">
-        <v>1.682385221601261</v>
+        <v>1.826153943898667</v>
       </c>
       <c r="R13">
-        <v>1.682385221601261</v>
+        <v>16.435385495088</v>
       </c>
       <c r="S13">
-        <v>0.02369911482644289</v>
+        <v>0.02164671009412339</v>
       </c>
       <c r="T13">
-        <v>0.02369911482644289</v>
+        <v>0.02164671009412339</v>
       </c>
     </row>
   </sheetData>
